--- a/AbbList.xlsx
+++ b/AbbList.xlsx
@@ -1,19 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d984e6111d38103/00_Doing/AbbTool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d984e6111d38103/Dokumente/GitHub/Bussysteme/Tools/AbbTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2960ABC3-966A-460D-98F4-9959ABDDC04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7AEFDFE-2ACA-49DF-BB12-96D5FBE4EF01}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{2960ABC3-966A-460D-98F4-9959ABDDC04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6624D6A-5459-4BEF-8D90-BC319D5B46B9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3C3FC0BE-C3E9-4912-AC29-0E63D3225BED}"/>
+    <workbookView xWindow="-38490" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="850" activeTab="6" xr2:uid="{3C3FC0BE-C3E9-4912-AC29-0E63D3225BED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="A" sheetId="2" r:id="rId1"/>
+    <sheet name="B" sheetId="3" r:id="rId2"/>
+    <sheet name="C" sheetId="4" r:id="rId3"/>
+    <sheet name="D" sheetId="5" r:id="rId4"/>
+    <sheet name="E" sheetId="6" r:id="rId5"/>
+    <sheet name="F" sheetId="7" r:id="rId6"/>
+    <sheet name="G" sheetId="8" r:id="rId7"/>
+    <sheet name="H" sheetId="9" r:id="rId8"/>
+    <sheet name="I" sheetId="10" r:id="rId9"/>
+    <sheet name="J" sheetId="11" r:id="rId10"/>
+    <sheet name="K" sheetId="12" r:id="rId11"/>
+    <sheet name="L" sheetId="13" r:id="rId12"/>
+    <sheet name="M" sheetId="14" r:id="rId13"/>
+    <sheet name="N" sheetId="15" r:id="rId14"/>
+    <sheet name="O" sheetId="16" r:id="rId15"/>
+    <sheet name="P" sheetId="17" r:id="rId16"/>
+    <sheet name="Q" sheetId="18" r:id="rId17"/>
+    <sheet name="R" sheetId="19" r:id="rId18"/>
+    <sheet name="S" sheetId="20" r:id="rId19"/>
+    <sheet name="T" sheetId="21" r:id="rId20"/>
+    <sheet name="U" sheetId="22" r:id="rId21"/>
+    <sheet name="V" sheetId="23" r:id="rId22"/>
+    <sheet name="W" sheetId="24" r:id="rId23"/>
+    <sheet name="X" sheetId="25" r:id="rId24"/>
+    <sheet name="Y" sheetId="26" r:id="rId25"/>
+    <sheet name="Z" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
   <si>
     <t>Abbrevation</t>
   </si>
@@ -354,6 +379,48 @@
   </si>
   <si>
     <t>XML Schema</t>
+  </si>
+  <si>
+    <t>CRC in Bussystemen ist eine Fehlererkennungstechnik, bei der eine zyklische Redundanzprüfung angewendet wird, um sicherzustellen, dass die übertragenen Daten im Bus fehlerfrei sind, indem eine Prüfsumme berechnet und am Ende jedes Datenrahmens angehängt wird.</t>
+  </si>
+  <si>
+    <t>Detalied Description</t>
+  </si>
+  <si>
+    <t>Die "Diagnostic Protocol Data Unit" ist eine Datenstruktur, die für die Übertragung von diagnostischen Informationen in einem Kommunikationsprotokoll verwendet wird.</t>
+  </si>
+  <si>
+    <t>DoIP steht für "Diagnostics over Internet Protocol" und bezeichnet einen Standard in der Fahrzeugdiagnose, bei dem Diagnoseinformationen über das Internetprotokoll übertragen werden, um eine effiziente und ferngesteuerte Diagnose von Fahrzeugen zu ermöglichen.</t>
+  </si>
+  <si>
+    <t>VFF</t>
+  </si>
+  <si>
+    <t>Vorserienfreigabe</t>
+  </si>
+  <si>
+    <t>Die Vorserienfreigabe ist eine Phase, in der eine begrenzte Anzahl von Fahrzeugen, oft als Vorserienmodelle bezeichnet, hergestellt wird, um die Serienproduktion vorzubereiten. In dieser Phase werden Produktionsprozesse überprüft, Fehler behoben und Qualitätsstandards sichergestellt.</t>
+  </si>
+  <si>
+    <t>PVS</t>
+  </si>
+  <si>
+    <t>Die Pilotversuchsserie ist eine Phase, die vor der eigentlichen Serienproduktion stattfindet. Hier werden bereits in größerem Umfang Fahrzeuge produziert, um die Produktionssysteme zu optimieren, Fehler zu identifizieren und eventuelle Probleme zu beheben. Diese Serie dient dazu, die Serienproduktion vorzubereiten.</t>
+  </si>
+  <si>
+    <t>Pilotversuchsserie</t>
+  </si>
+  <si>
+    <t>Nullserie</t>
+  </si>
+  <si>
+    <t>Die 0-Serien Phase ist die letzte Entwicklungsstufe vor dem eigentlichen Produktionsstart in größerem Maßstab. In dieser Phase werden bereits Fahrzeuge in Serienqualität hergestellt, jedoch in einer begrenzten Anzahl. Dies ermöglicht es, die Produktion weiter zu optimieren und sicherzustellen, dass alle Abläufe reibungslos funktionieren, bevor die volle Serienproduktion beginnt.</t>
+  </si>
+  <si>
+    <t>ACK in der Buskommunikation ist eine Rückmeldung, die ein Gerät sendet, um zu bestätigen, dass es Daten erfolgreich empfangen hat, und wird verwendet, um die Zuverlässigkeit der Datenübertragung zu gewährleisten.</t>
+  </si>
+  <si>
+    <t>NACK steht für "Negative Acknowledgment" oder "Not Acknowledge" und bezeichnet in der Buskommunikation eine negative Rückmeldung oder Ablehnung, die ein Gerät oder eine Komponente sendet, um anzuzeigen, dass es Probleme bei der Datenübertragung gab oder dass die empfangenen Daten fehlerhaft waren.</t>
   </si>
 </sst>
 </file>
@@ -408,10 +475,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -449,7 +520,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -555,7 +626,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -697,43 +768,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A617E909-F462-4CB2-B383-56C46991E431}">
-  <dimension ref="A1:B53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C171798D-A0A0-430D-BEA1-DDCB593AF737}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="75.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -741,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -749,7 +827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -757,7 +835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -765,382 +843,1108 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593A73DE-468B-4340-9410-B8D5F35D1099}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4A6E04-5D13-4D0A-A221-E9BDC0F2FFF3}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14738DA-FB21-4C6F-82A3-FF3BB1215025}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A4C96C-AD1E-4483-9F99-56FF2A8B81FF}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3E80E0-6673-4360-84A1-0F1E46BE0113}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE50DFEC-A131-4046-87BC-DE5F15BC6B56}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B462AD1-46F9-4343-9E7F-3EA78E0292EF}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C41DB0-9467-436E-9989-48AF9A95599E}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79031451-BDB1-44B7-9108-89735C982AE5}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D1E18F-7C3E-4DE2-B5E8-F2C71FED519D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1A3DBA-53A3-4ECD-A10C-E55087FB0077}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FBA30D-8ECB-4BA0-B4C3-1FEE858907F4}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8570A34D-9386-4960-955E-3534378EB8D5}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEEC617-C373-471F-9454-B2357FA633E1}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="39.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4928C8B2-BE7E-444B-AA4D-449162CF6305}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A840FE-396F-4D8C-B3C7-357CFAAEF9A3}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D24D4B-1603-4CA9-96AF-D40BC5F42A29}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78905DB1-6C92-434A-BCEC-20DEF21FFD87}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4E23D0-AD8A-409E-BD45-EC1AEF37444B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="59.453125" customWidth="1"/>
+    <col min="3" max="3" width="228.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB37B2F-F959-4326-98F3-DD353B87B46E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
+    <col min="3" max="3" width="93.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CCA252-389C-48DB-ADFA-4DD961D536CB}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26986E63-2340-4935-9327-78F7A99C0BB8}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DC7717-A65C-487A-B957-6508A4541D60}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D742D0-D2E1-4823-BC02-4412D5DFCA99}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEA7488-579E-46F1-AE7D-0E7F5D7683D9}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
